--- a/demo_attendance.xlsx
+++ b/demo_attendance.xlsx
@@ -1,34 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leave-analyzer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC3D64-7371-4E60-B86C-50C06CB611E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Attendance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Attendance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-01-02</t>
+  </si>
+  <si>
+    <t>10:05</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>18:40</t>
+  </si>
+  <si>
+    <t>2025-01-04</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>2025-01-07</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>18:10</t>
+  </si>
+  <si>
+    <t>2025-01-08</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>18:35</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>17:45</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>In-Time</t>
+  </si>
+  <si>
+    <t>Out-Time</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +152,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,193 +454,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>InTime</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>OutTime</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>DayType</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-01-02</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>10:05</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>09:55</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-01-04</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10:10</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14:15</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-01-06</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18:20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-01-07</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10:25</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>18:10</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-01-08</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>18:35</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Weekday</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Weekday</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/demo_attendance.xlsx
+++ b/demo_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leave-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC3D64-7371-4E60-B86C-50C06CB611E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEBE2C2-8B2D-4703-859C-49CD2F63D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -46,48 +46,6 @@
     <t>2025-01-04</t>
   </si>
   <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>14:15</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>18:20</t>
-  </si>
-  <si>
-    <t>2025-01-07</t>
-  </si>
-  <si>
-    <t>10:25</t>
-  </si>
-  <si>
-    <t>18:10</t>
-  </si>
-  <si>
-    <t>2025-01-08</t>
-  </si>
-  <si>
-    <t>09:50</t>
-  </si>
-  <si>
-    <t>18:35</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
     <t>Employee Name</t>
   </si>
   <si>
@@ -98,31 +56,20 @@
   </si>
   <si>
     <t>John</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Julia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,14 +95,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,21 +426,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -499,7 +454,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -513,75 +468,22 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
+      <c r="B5" s="2">
+        <v>45662</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/demo_attendance.xlsx
+++ b/demo_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leave-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEBE2C2-8B2D-4703-859C-49CD2F63D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D9175-5BB9-404A-9482-36474AC1B8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,30 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02</t>
-  </si>
-  <si>
     <t>10:05</t>
   </si>
   <si>
     <t>18:30</t>
   </si>
   <si>
-    <t>2025-01-03</t>
-  </si>
-  <si>
     <t>09:55</t>
   </si>
   <si>
     <t>18:40</t>
-  </si>
-  <si>
-    <t>2025-01-04</t>
   </si>
   <si>
     <t>Employee Name</t>
@@ -99,12 +90,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -413,7 +408,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,59 +421,63 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45659</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45660</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45661</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4">
+        <v>0.77361111111111114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
         <v>45662</v>
       </c>
     </row>

--- a/demo_attendance.xlsx
+++ b/demo_attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leave-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D9175-5BB9-404A-9482-36474AC1B8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A850416E-ED7D-441D-8F2A-59E2134EFD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -47,13 +47,136 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>09:56</t>
+  </si>
+  <si>
+    <t>09:57</t>
+  </si>
+  <si>
+    <t>09:58</t>
+  </si>
+  <si>
+    <t>09:59</t>
+  </si>
+  <si>
+    <t>09:60</t>
+  </si>
+  <si>
+    <t>09:61</t>
+  </si>
+  <si>
+    <t>09:62</t>
+  </si>
+  <si>
+    <t>09:63</t>
+  </si>
+  <si>
+    <t>09:64</t>
+  </si>
+  <si>
+    <t>09:65</t>
+  </si>
+  <si>
+    <t>09:66</t>
+  </si>
+  <si>
+    <t>09:67</t>
+  </si>
+  <si>
+    <t>09:68</t>
+  </si>
+  <si>
+    <t>09:69</t>
+  </si>
+  <si>
+    <t>09:70</t>
+  </si>
+  <si>
+    <t>09:71</t>
+  </si>
+  <si>
+    <t>09:72</t>
+  </si>
+  <si>
+    <t>09:73</t>
+  </si>
+  <si>
+    <t>09:74</t>
+  </si>
+  <si>
+    <t>09:75</t>
+  </si>
+  <si>
+    <t>09:76</t>
+  </si>
+  <si>
+    <t>09:77</t>
+  </si>
+  <si>
+    <t>09:78</t>
+  </si>
+  <si>
+    <t>09:79</t>
+  </si>
+  <si>
+    <t>09:80</t>
+  </si>
+  <si>
+    <t>09:81</t>
+  </si>
+  <si>
+    <t>09:82</t>
+  </si>
+  <si>
+    <t>09:83</t>
+  </si>
+  <si>
+    <t>09:84</t>
+  </si>
+  <si>
+    <t>09:85</t>
+  </si>
+  <si>
+    <t>09:86</t>
+  </si>
+  <si>
+    <t>09:87</t>
+  </si>
+  <si>
+    <t>09:88</t>
+  </si>
+  <si>
+    <t>09:89</t>
+  </si>
+  <si>
+    <t>09:90</t>
+  </si>
+  <si>
+    <t>09:91</t>
+  </si>
+  <si>
+    <t>09:92</t>
+  </si>
+  <si>
+    <t>09:93</t>
+  </si>
+  <si>
+    <t>09:94</t>
+  </si>
+  <si>
+    <t>09:95</t>
+  </si>
+  <si>
+    <t>09:96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +187,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,12 +219,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -405,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -437,7 +565,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>45659</v>
       </c>
       <c r="C2" t="s">
@@ -451,7 +579,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>45660</v>
       </c>
       <c r="C3" t="s">
@@ -465,11 +593,13 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>45661</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.77361111111111114</v>
       </c>
     </row>
@@ -480,8 +610,561 @@
       <c r="B5" s="1">
         <v>45662</v>
       </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.81527777777777799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45663</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.85694444444444495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45664</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.89861111111111103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45665</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.94027777777777799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45666</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.98194444444444495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45667</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.0236111111111099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45668</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.06527777777778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45669</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.1069444444444401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45670</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.1486111111111099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45671</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.19027777777778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45672</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.2319444444444401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45673</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.2736111111111099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.31527777777778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45675</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.3569444444444401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45676</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.3986111111111099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45677</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.44027777777778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45678</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.4819444444444401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.5236111111111099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45680</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.56527777777778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45681</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.6069444444444401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45682</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1.6486111111111099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45683</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.69027777777778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45684</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.7319444444444401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45685</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.7736111111111099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45686</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.81527777777778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45687</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.8569444444444401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45688</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.8986111111111099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.94027777777778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45690</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.9819444444444401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45691</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2.0236111111111099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45692</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.06527777777778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45693</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.1069444444444398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45694</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2.1486111111111099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45695</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2.19027777777778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45696</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2.2319444444444398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45697</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2.2736111111111099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45698</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2.31527777777778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45699</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2.3569444444444398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45700</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2.3986111111111099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45701</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2.44027777777778</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
